--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F9EB22-F846-46AA-A9AD-E18B4B47636C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D58EE6-2807-44BF-8A14-15B4318F4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,RaP,SaD,FaD,WaP,FaP,SaP,RaD</t>
-  </si>
-  <si>
-    <t>FaN,FaP,SaP,RaP,RaN,SaN,WaN,WaP</t>
+    <t>FaP,SaP,RaP,SaD,RaD,FaD,WaD,WaP</t>
+  </si>
+  <si>
+    <t>WaP,SaN,WaN,FaN,FaP,SaP,RaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,FaP,SaP,RaP,RaN,SaN,WaN,WaP</v>
+        <v>WaP,SaN,WaN,FaN,FaP,SaP,RaP,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,RaP,SaD,FaD,WaP,FaP,SaP,RaD</v>
+        <v>FaP,SaP,RaP,SaD,RaD,FaD,WaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FD2F04-6A69-478C-8F05-C1D8A56606A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288C9BB7-0E82-4F1F-837B-DAE12E1B25CD}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60F0F1B-EBE3-49A2-91EC-3BA74DEF9C56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29FFB4-25ED-4368-BC00-06DA37CB415F}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>0.4043961129106895</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047B2C3B-E7D9-4D27-866B-24486F81D2E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342FC428-2EB3-4FB4-B71D-F9C8478647B4}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D58EE6-2807-44BF-8A14-15B4318F4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C18A87-148A-4597-AEFA-3705D6781137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,RaP,SaD,RaD,FaD,WaD,WaP</t>
-  </si>
-  <si>
-    <t>WaP,SaN,WaN,FaN,FaP,SaP,RaP,RaN</t>
+    <t>RaD,WaD,WaP,RaP,SaD,FaD,FaP,SaP</t>
+  </si>
+  <si>
+    <t>SaN,WaN,FaN,WaP,RaN,FaP,SaP,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>WaP,SaN,WaN,FaN,FaP,SaP,RaP,RaN</v>
+        <v>SaN,WaN,FaN,WaP,RaN,FaP,SaP,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,RaP,SaD,RaD,FaD,WaD,WaP</v>
+        <v>RaD,WaD,WaP,RaP,SaD,FaD,FaP,SaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288C9BB7-0E82-4F1F-837B-DAE12E1B25CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA2FF8-5C1F-4D68-A9A2-59E3995D6351}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B29FFB4-25ED-4368-BC00-06DA37CB415F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B86B5F-8D43-4F4F-AE1D-8C90AE62C707}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>0.40439611291068944</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.22555529847292916</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.30301943544655252</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342FC428-2EB3-4FB4-B71D-F9C8478647B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DF2E51-E308-4665-BF0A-6B9B06F34885}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C18A87-148A-4597-AEFA-3705D6781137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1006F7D-2843-4A26-B4B6-9EF54A1B5FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaD,WaD,WaP,RaP,SaD,FaD,FaP,SaP</t>
-  </si>
-  <si>
-    <t>SaN,WaN,FaN,WaP,RaN,FaP,SaP,RaP</t>
+    <t>WaP,FaD,RaD,FaP,SaP,WaD,RaP,SaD</t>
+  </si>
+  <si>
+    <t>FaN,RaN,RaP,SaN,WaN,WaP,FaP,SaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,FaN,WaP,RaN,FaP,SaP,RaP</v>
+        <v>FaN,RaN,RaP,SaN,WaN,WaP,FaP,SaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,WaD,WaP,RaP,SaD,FaD,FaP,SaP</v>
+        <v>WaP,FaD,RaD,FaP,SaP,WaD,RaP,SaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA2FF8-5C1F-4D68-A9A2-59E3995D6351}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABD94B2-E233-42BE-98D5-02C27D834A33}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B86B5F-8D43-4F4F-AE1D-8C90AE62C707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04767BAD-33A2-4CFC-B360-1D510490345C}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N5">
-        <v>0.26702915316982878</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N6">
-        <v>0.22555529847292916</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DF2E51-E308-4665-BF0A-6B9B06F34885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134A5621-79CB-4F08-A4F1-4A1539FD3BB8}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1006F7D-2843-4A26-B4B6-9EF54A1B5FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FB8239-0024-47A4-93F2-7C6DD962FC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaP,FaD,RaD,FaP,SaP,WaD,RaP,SaD</t>
-  </si>
-  <si>
-    <t>FaN,RaN,RaP,SaN,WaN,WaP,FaP,SaP</t>
+    <t>WaP,SaD,FaD,FaP,SaP,RaP,WaD,RaD</t>
+  </si>
+  <si>
+    <t>FaN,SaN,WaN,RaN,FaP,SaP,RaP,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,RaN,RaP,SaN,WaN,WaP,FaP,SaP</v>
+        <v>FaN,SaN,WaN,RaN,FaP,SaP,RaP,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaP,FaD,RaD,FaP,SaP,WaD,RaP,SaD</v>
+        <v>WaP,SaD,FaD,FaP,SaP,RaP,WaD,RaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABD94B2-E233-42BE-98D5-02C27D834A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8907CB9E-16B8-4320-A344-4D1422077D23}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04767BAD-33A2-4CFC-B360-1D510490345C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1D1FCA-5638-425E-995F-8D92044C1094}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.4043961129106895</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.22555529847292916</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.30301943544655252</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134A5621-79CB-4F08-A4F1-4A1539FD3BB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7803E932-3A1B-49B5-BB86-B7E933D15B54}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FB8239-0024-47A4-93F2-7C6DD962FC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB1594-1309-4716-9DCB-D2148A240EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaP,SaD,FaD,FaP,SaP,RaP,WaD,RaD</t>
-  </si>
-  <si>
-    <t>FaN,SaN,WaN,RaN,FaP,SaP,RaP,WaP</t>
+    <t>FaD,WaP,FaP,SaP,WaD,SaD,RaD,RaP</t>
+  </si>
+  <si>
+    <t>SaN,WaN,RaP,RaN,FaP,SaP,FaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaN,SaN,WaN,RaN,FaP,SaP,RaP,WaP</v>
+        <v>SaN,WaN,RaP,RaN,FaP,SaP,FaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaP,SaD,FaD,FaP,SaP,RaP,WaD,RaD</v>
+        <v>FaD,WaP,FaP,SaP,WaD,SaD,RaD,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8907CB9E-16B8-4320-A344-4D1422077D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777BCAD1-E5BC-4529-A6CF-4C40D8364CA7}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1D1FCA-5638-425E-995F-8D92044C1094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABBDCA9-079E-4A29-8691-5A9B1265D2DA}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.26702915316982878</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.4043961129106895</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>0.22555529847292916</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7803E932-3A1B-49B5-BB86-B7E933D15B54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF16DB02-2F76-4841-935B-E3B36ACF4872}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB1594-1309-4716-9DCB-D2148A240EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EB0211-A6CF-4CDE-9B74-EBA759C88A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,WaP,FaP,SaP,WaD,SaD,RaD,RaP</t>
-  </si>
-  <si>
-    <t>SaN,WaN,RaP,RaN,FaP,SaP,FaN,WaP</t>
+    <t>RaP,WaP,SaD,FaD,FaP,SaP,WaD,RaD</t>
+  </si>
+  <si>
+    <t>SaN,WaN,RaN,FaP,SaP,RaP,FaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,RaP,RaN,FaP,SaP,FaN,WaP</v>
+        <v>SaN,WaN,RaN,FaP,SaP,RaP,FaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaD,WaP,FaP,SaP,WaD,SaD,RaD,RaP</v>
+        <v>RaP,WaP,SaD,FaD,FaP,SaP,WaD,RaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777BCAD1-E5BC-4529-A6CF-4C40D8364CA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8301D468-6E14-4B37-9A51-F2B57A2D9EF1}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABBDCA9-079E-4A29-8691-5A9B1265D2DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F2339-9D3F-4757-869A-222F5D13B18A}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="N4">
-        <v>0.22555529847292916</v>
+        <v>0.22555529847292924</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.26702915316982878</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N6">
-        <v>0.4043961129106895</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF16DB02-2F76-4841-935B-E3B36ACF4872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5303AF-76E2-4879-B548-04718A4D3769}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EB0211-A6CF-4CDE-9B74-EBA759C88A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE20358-E9B0-4862-86B9-64EB5039641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaP,WaP,SaD,FaD,FaP,SaP,WaD,RaD</t>
-  </si>
-  <si>
-    <t>SaN,WaN,RaN,FaP,SaP,RaP,FaN,WaP</t>
+    <t>WaP,RaD,SaD,WaD,FaP,SaP,FaD,RaP</t>
+  </si>
+  <si>
+    <t>SaN,WaN,RaN,FaP,SaP,WaP,RaP,FaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,RaN,FaP,SaP,RaP,FaN,WaP</v>
+        <v>SaN,WaN,RaN,FaP,SaP,WaP,RaP,FaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaP,WaP,SaD,FaD,FaP,SaP,WaD,RaD</v>
+        <v>WaP,RaD,SaD,WaD,FaP,SaP,FaD,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8301D468-6E14-4B37-9A51-F2B57A2D9EF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4AA734-2454-4F80-8202-CBC0333C3C8B}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8F2339-9D3F-4757-869A-222F5D13B18A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395072B1-A587-49E1-A326-AACB15EC57DE}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>0.22555529847292924</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N5">
-        <v>0.40439611291068944</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.30301943544655252</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5303AF-76E2-4879-B548-04718A4D3769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6154D24F-85B8-4378-AFB5-61D2DFA96DFD}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE20358-E9B0-4862-86B9-64EB5039641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDDC0519-5161-483F-9351-347597E540C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="112">
   <si>
     <t>UC_N</t>
   </si>
@@ -252,6 +252,9 @@
     <t>timeslice</t>
   </si>
   <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
     <t>season</t>
   </si>
   <si>
@@ -276,7 +279,13 @@
     <t>W,R,S,F</t>
   </si>
   <si>
-    <t>~TimeSlices</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
   </si>
   <si>
     <t>com_fr</t>
@@ -285,7 +294,7 @@
     <t>process</t>
   </si>
   <si>
-    <t>commodity</t>
+    <t>elc_spv-ITA</t>
   </si>
   <si>
     <t>FaD</t>
@@ -294,9 +303,6 @@
     <t>IMPNRGZ</t>
   </si>
   <si>
-    <t>elc_spv-ITA</t>
-  </si>
-  <si>
     <t>FaN</t>
   </si>
   <si>
@@ -330,12 +336,12 @@
     <t>WaP</t>
   </si>
   <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
     <t>elc_won-ITA</t>
   </si>
   <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
     <t>g_yrfr</t>
   </si>
   <si>
@@ -345,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaP,RaD,SaD,WaD,FaP,SaP,FaD,RaP</t>
-  </si>
-  <si>
-    <t>SaN,WaN,RaN,FaP,SaP,WaP,RaP,FaN</t>
+    <t>SaD,WaD,RaD,FaD,WaP,FaP,SaP,RaP</t>
+  </si>
+  <si>
+    <t>FaP,SaP,RaP,RaN,SaN,WaN,FaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -360,6 +366,9 @@
     <t>com_pkflx</t>
   </si>
   <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
     <t>ncap_afs</t>
   </si>
   <si>
@@ -367,16 +376,18 @@
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +441,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,8 +492,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -496,6 +552,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -507,7 +593,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,6 +609,24 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -545,6 +649,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214D7227-007E-6DD8-637F-74F94FFFB0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3A131A-9F73-3488-A105-CDADD25BD6C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F41A0C-540A-D5B3-75E1-3270373556D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,7 +1189,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,RaN,FaP,SaP,WaP,RaP,FaN</v>
+        <v>FaP,SaP,RaP,RaN,SaN,WaN,FaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +1221,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaP,RaD,SaD,WaD,FaP,SaP,FaD,RaP</v>
+        <v>SaD,WaD,RaD,FaD,WaP,FaP,SaP,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -964,7 +1233,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -975,7 +1244,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -983,7 +1252,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1565,1059 +1834,1300 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4AA734-2454-4F80-8202-CBC0333C3C8B}">
-  <dimension ref="B2:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EAF400-4620-4321-A798-74CB57DA14E6}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="6" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395072B1-A587-49E1-A326-AACB15EC57DE}">
-  <dimension ref="B2:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D406D4-3393-46FE-9BB2-C96CB5E4CC00}">
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.59765625" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.19429881101052746</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.10520441806812357</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="24">
+        <v>0.22555529847292916</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="16">
+        <v>6.9026431976756313E-5</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.10140725246095379</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="26">
+        <v>0.30301943544655252</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B13" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.2744997819071709E-2</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2.0061122687877575E-2</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="19">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" s="24">
+        <v>0.4043961129106895</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.25838474206722706</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.14904848550067187</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0.26702915316982878</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="15">
+        <v>3.3105948694450689E-3</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0.1425689183623626</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="19">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="16">
+        <v>3.0691267184700395E-2</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="18">
+        <v>2.8818897827592432E-2</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.29948444185308731</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="17">
+        <v>7.5144634691264436E-2</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="19">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="16">
+        <v>9.4162079174879981E-3</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="18">
+        <v>6.846541783195341E-2</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="20">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="15">
+        <v>3.8021106530569837E-2</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1.5303222790190243E-2</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.14688613298083877</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0.1353111009554451</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="20">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D21" s="15">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="M2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>0.19012080000000001</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I21" s="17">
+        <v>0.13382477085889041</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4">
-        <v>0.10631174138960649</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="C22" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4">
-        <v>0.40439611291068944</v>
-      </c>
-      <c r="O4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
-        <v>6.8303999999999999E-4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5">
-        <v>0.10023090147227821</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="D22" s="16">
+        <v>6.6926713348765317E-3</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5">
-        <v>0.30301943544655252</v>
-      </c>
-      <c r="O5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6">
-        <v>2.29328E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6">
-        <v>1.7782793664627716E-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I22" s="18">
+        <v>2.4841757964468962E-2</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6">
-        <v>0.22555529847292916</v>
-      </c>
-      <c r="O6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7">
-        <v>0.19813078000000001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7">
-        <v>0.16967187838573711</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7">
-        <v>0.26702915316982878</v>
-      </c>
-      <c r="O7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8">
-        <v>6.5323100000000004E-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8">
-        <v>0.14576744690312657</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9">
-        <v>3.4337239999999998E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9">
-        <v>2.6968570015653507E-2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <v>0.29213239000000002</v>
-      </c>
-      <c r="D10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10">
-        <v>5.5573819299504133E-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11">
-        <v>2.0128549999999999E-2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11">
-        <v>4.922270898185073E-2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12">
-        <v>5.1236289999999997E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12">
-        <v>1.0225265015663995E-2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13">
-        <v>0.16783724999999999</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13">
-        <v>0.14655490217773437</v>
-      </c>
-      <c r="J13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14">
+      <c r="N22" s="20">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14">
-        <v>0.14614202742312385</v>
-      </c>
-      <c r="J14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15">
-        <v>1.5928499999999998E-2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15">
-        <v>2.5547945270916316E-2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" t="s">
-        <v>97</v>
+      <c r="O22" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6154D24F-85B8-4378-AFB5-61D2DFA96DFD}">
-  <dimension ref="B2:O27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFB885E-F674-4FF8-BFA5-3D57EF510059}">
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="17">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0.16087081189037786</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.11819115625337555</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.18444393583567309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="18">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C12" s="18">
+        <v>5.2547713165767528E-2</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="18">
+        <v>9.764364422569162E-2</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0.33632064062675737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="17">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="C13" s="17">
+        <v>3.5896543437005365E-2</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2.2218061012861254E-2</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0.16828062521923326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B14" s="18">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0.12251447003662695</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0.19174320375688136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="17">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C15" s="17">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="17">
+        <v>9.9430561690573876E-2</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0.37712195612715815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="18">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C16" s="18">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="18">
+        <v>2.2965271391870858E-2</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0.1680616153557668</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17" s="17">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0.12264326156561349</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.14769495408386679</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18" s="18">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C18" s="18">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0.10045386194730507</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0.31451538907064003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19" s="17">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C19" s="17">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="17">
+        <v>2.2611873364752143E-2</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.1070148299237299</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20" s="18">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.15910300077070333</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0.13762287724714475</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0.10814855721490635</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="17">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C21" s="17">
+        <v>5.197026576834151E-2</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I21" s="17">
+        <v>0.10709107236508457</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="M21" s="17">
+        <v>0.30643668094329723</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22" s="18">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3.5502075926708607E-2</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="C4">
-        <v>0.16087081189037786</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4">
-        <v>0.11819115625337555</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="H22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="18">
+        <v>2.6613888899099897E-2</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4">
-        <v>0.18444393583567309</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="C5">
-        <v>5.2547713165767528E-2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="L22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="18">
+        <v>5.2768244206291559E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G23" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5">
-        <v>9.764364422569162E-2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5">
-        <v>0.33632064062675737</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>2.0776255707762557E-2</v>
-      </c>
-      <c r="C6">
-        <v>3.5896543437005365E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6">
-        <v>2.2218061012861254E-2</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6">
-        <v>0.16828062521923326</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C7">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I23" s="17">
+        <v>0.11495523261944324</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G24" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7">
-        <v>0.12251447003662695</v>
-      </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7">
-        <v>0.19174320375688136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C8">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I24" s="18">
+        <v>0.11331233725982839</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G25" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8">
-        <v>9.9430561690573876E-2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8">
-        <v>0.37712195612715815</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C9">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I25" s="17">
+        <v>2.0959220056360785E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G26" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9">
-        <v>2.2965271391870858E-2</v>
-      </c>
-      <c r="M9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9">
-        <v>0.1680616153557668</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C10">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I26" s="18">
+        <v>0.11632010738895902</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10">
-        <v>0.12264326156561349</v>
-      </c>
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>90</v>
-      </c>
-      <c r="O10">
-        <v>0.14769495408386679</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C11">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="I27" s="17">
+        <v>0.11447441211196349</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G28" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11">
-        <v>0.10045386194730507</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" t="s">
-        <v>91</v>
-      </c>
-      <c r="O11">
-        <v>0.31451538907064003</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C12">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="I28" s="18">
+        <v>2.1204273083676676E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12">
-        <v>2.2611873364752143E-2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>92</v>
-      </c>
-      <c r="O12">
-        <v>0.1070148299237299</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C13">
-        <v>0.15910300077070333</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="I29" s="17">
+        <v>0.11630400514669803</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G30" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13">
-        <v>0.13762287724714475</v>
-      </c>
-      <c r="M13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" t="s">
-        <v>93</v>
-      </c>
-      <c r="O13">
-        <v>0.10814855721490635</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C14">
-        <v>5.197026576834151E-2</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="I30" s="18">
+        <v>0.11452983114371207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G31" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14">
-        <v>0.10709107236508457</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-      <c r="N14" t="s">
-        <v>94</v>
-      </c>
-      <c r="O14">
-        <v>0.30643668094329723</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15">
-        <v>2.0547945205479451E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.5502075926708607E-2</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="I31" s="17">
+        <v>2.1171216837340218E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G32" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15">
-        <v>2.6613888899099897E-2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
-        <v>95</v>
-      </c>
-      <c r="O15">
-        <v>5.2768244206291559E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16">
-        <v>0.11495523261944324</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17">
-        <v>0.11331233725982839</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18">
-        <v>2.0959220056360785E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19">
-        <v>0.11632010738895902</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20">
-        <v>0.11447441211196349</v>
-      </c>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21">
-        <v>2.1204273083676676E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22">
-        <v>0.11630400514669803</v>
-      </c>
-    </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23">
-        <v>0.11452983114371207</v>
-      </c>
-    </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24">
-        <v>2.1171216837340218E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H25" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25">
+      <c r="I32" s="18">
         <v>0.11416318349107028</v>
       </c>
     </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I26" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G33" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="17">
         <v>0.11172198474672497</v>
       </c>
     </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H27" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G34" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="18">
         <v>2.0884196114222889E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDDC0519-5161-483F-9351-347597E540C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9400D2C3-1F3E-4F72-9AD4-1796164A258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -351,10 +351,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,WaD,RaD,FaD,WaP,FaP,SaP,RaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,RaP,RaN,SaN,WaN,FaN,WaP</t>
+    <t>SaD,RaD,RaP,FaP,SaP,WaP,WaD,FaD</t>
+  </si>
+  <si>
+    <t>FaP,SaP,FaN,RaN,SaN,WaN,RaP,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -671,7 +671,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214D7227-007E-6DD8-637F-74F94FFFB0C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559FACEC-897F-A920-C6E5-60933B9F523E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -726,7 +726,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3A131A-9F73-3488-A105-CDADD25BD6C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64389E83-AE7F-7254-8BB3-D0BD9D5183FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -781,7 +781,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F41A0C-540A-D5B3-75E1-3270373556D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C914772C-DA26-AD0D-F5FC-F7CFA51C43BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,RaP,RaN,SaN,WaN,FaN,WaP</v>
+        <v>FaP,SaP,FaN,RaN,SaN,WaN,RaP,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,WaD,RaD,FaD,WaP,FaP,SaP,RaP</v>
+        <v>SaD,RaD,RaP,FaP,SaP,WaP,WaD,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1834,7 +1834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EAF400-4620-4321-A798-74CB57DA14E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06098EED-BA12-42A6-8106-A7632F3E36B1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1942,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D406D4-3393-46FE-9BB2-C96CB5E4CC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075109F-3A26-40DD-B797-3E57501AAED7}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2074,7 +2074,7 @@
         <v>21</v>
       </c>
       <c r="R11" s="24">
-        <v>0.22555529847292916</v>
+        <v>0.22555529847292924</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>111</v>
@@ -2118,10 +2118,10 @@
         <v>86</v>
       </c>
       <c r="Q12" s="25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R12" s="26">
-        <v>0.30301943544655252</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="S12" s="25" t="s">
         <v>111</v>
@@ -2165,10 +2165,10 @@
         <v>86</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="R13" s="24">
-        <v>0.4043961129106895</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="S13" s="23" t="s">
         <v>111</v>
@@ -2212,10 +2212,10 @@
         <v>86</v>
       </c>
       <c r="Q14" s="25" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="R14" s="26">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="S14" s="25" t="s">
         <v>111</v>
@@ -2535,7 +2535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFB885E-F674-4FF8-BFA5-3D57EF510059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AB8E0E-938F-49CA-B9A8-580A0F4DB900}">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9400D2C3-1F3E-4F72-9AD4-1796164A258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B234D77-0C09-4C6B-9960-2B4A90A7EC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="111">
   <si>
     <t>UC_N</t>
   </si>
@@ -279,9 +279,6 @@
     <t>W,R,S,F</t>
   </si>
   <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
-  </si>
-  <si>
     <t>~TFM_DINS-AT</t>
   </si>
   <si>
@@ -351,10 +348,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,RaD,RaP,FaP,SaP,WaP,WaD,FaD</t>
-  </si>
-  <si>
-    <t>FaP,SaP,FaN,RaN,SaN,WaN,RaP,WaP</t>
+    <t>SaD,WaD,RaP,RaD,FaD,FaP,SaP,WaP</t>
+  </si>
+  <si>
+    <t>FaP,SaP,WaP,SaN,WaN,RaP,FaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -382,12 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,35 +433,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,26 +457,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -552,36 +499,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -593,7 +510,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,24 +526,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -649,171 +548,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559FACEC-897F-A920-C6E5-60933B9F523E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296862</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64389E83-AE7F-7254-8BB3-D0BD9D5183FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C914772C-DA26-AD0D-F5FC-F7CFA51C43BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,FaN,RaN,SaN,WaN,RaP,WaP</v>
+        <v>FaP,SaP,WaP,SaN,WaN,RaP,FaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1221,7 +955,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,RaD,RaP,FaP,SaP,WaP,WaD,FaD</v>
+        <v>SaD,WaD,RaP,RaD,FaD,FaP,SaP,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1233,7 +967,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1244,7 +978,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1252,7 +986,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1834,1300 +1568,1218 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06098EED-BA12-42A6-8106-A7632F3E36B1}">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B862CE-6E5B-49EE-A9EF-9266F7222D3E}">
+  <dimension ref="B9:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="6" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="F13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C075109F-3A26-40DD-B797-3E57501AAED7}">
-  <dimension ref="A1:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E733FE-FE41-4242-B967-39A765A81D1E}">
+  <dimension ref="B9:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.59765625" customWidth="1"/>
-    <col min="17" max="19" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="S10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>0.19429881101052746</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>0.10520441806812357</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <v>0.30301943544655252</v>
+      </c>
+      <c r="S11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="12" t="s">
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>6.9026431976756313E-5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>0.10140725246095379</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12">
+        <v>0.22555529847292916</v>
+      </c>
+      <c r="S12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="Q10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" s="22" t="s">
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13">
+        <v>1.2744997819071709E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>2.0061122687877575E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13">
+        <v>0.40439611291068944</v>
+      </c>
+      <c r="S13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.19429881101052746</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="13" t="s">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>0.25838474206722706</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14">
+        <v>0.14904848550067187</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0.10520441806812357</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="19">
+      <c r="M14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="24">
-        <v>0.22555529847292924</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="16">
-        <v>6.9026431976756313E-5</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14">
+        <v>0.26702915316982878</v>
+      </c>
+      <c r="S14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>3.3105948694450689E-3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>0.1425689183623626</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
         <v>98</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0.10140725246095379</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="20">
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
-      <c r="O12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="26">
-        <v>0.40439611291068944</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="15">
-        <v>1.2744997819071709E-2</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>3.0691267184700395E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>2.8818897827592432E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
         <v>98</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="17">
-        <v>2.0061122687877575E-2</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="19">
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" s="24">
-        <v>0.26702915316982878</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.25838474206722706</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="O16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>0.29948444185308731</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17">
+        <v>7.5144634691264436E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
         <v>98</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.14904848550067187</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="N14" s="20">
+      <c r="M17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="26">
-        <v>0.30301943544655252</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B15" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="15">
-        <v>3.3105948694450689E-3</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>9.4162079174879981E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>6.846541783195341E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0.1425689183623626</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="19">
+      <c r="M18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
-      <c r="O15" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B16" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="16">
-        <v>3.0691267184700395E-2</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19">
+        <v>3.8021106530569837E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>1.5303222790190243E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="18">
-        <v>2.8818897827592432E-2</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="M19" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="O16" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.29948444185308731</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20">
+        <v>0.14688613298083877</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>0.1353111009554451</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="17">
-        <v>7.5144634691264436E-2</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="19">
+      <c r="M20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
-      <c r="O17" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="16">
-        <v>9.4162079174879981E-3</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21">
+        <v>0.13382477085889041</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="18">
-        <v>6.846541783195341E-2</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N18" s="20">
+      <c r="M21" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="O18" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="15">
-        <v>3.8021106530569837E-2</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>6.6926713348765317E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22">
+        <v>2.4841757964468962E-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="17">
-        <v>1.5303222790190243E-2</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N19" s="19">
+      <c r="M22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
-      <c r="O19" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B20" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.14688613298083877</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0.1353111009554451</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N20" s="20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B21" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0.13382477085889041</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="N21" s="19">
-        <v>0</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B22" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="16">
-        <v>6.6926713348765317E-3</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="18">
-        <v>2.4841757964468962E-2</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="20">
-        <v>0</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>86</v>
+      <c r="O22" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AB8E0E-938F-49CA-B9A8-580A0F4DB900}">
-  <dimension ref="A1:M34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B5ACAA-7474-4F32-9487-3D3060A95FCA}">
+  <dimension ref="B9:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C11">
+        <v>0.16087081189037786</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="17">
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>0.11819115625337555</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11">
+        <v>0.18444393583567309</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12">
         <v>0.11426940639269406</v>
       </c>
-      <c r="C11" s="17">
-        <v>0.16087081189037786</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="C12">
+        <v>5.2547713165767528E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>9.764364422569162E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12">
+        <v>0.33632064062675737</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.5896543437005365E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>2.2218061012861254E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13">
+        <v>0.16828062521923326</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C14">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14">
+        <v>0.12251447003662695</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14">
+        <v>0.19174320375688136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C15">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>9.9430561690573876E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15">
+        <v>0.37712195612715815</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C16">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>2.2965271391870858E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16">
+        <v>0.1680616153557668</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C17">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17">
+        <v>0.12264326156561349</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17">
+        <v>0.14769495408386679</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C18">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>0.10045386194730507</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18">
+        <v>0.31451538907064003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>2.2611873364752143E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19">
+        <v>0.1070148299237299</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C20">
+        <v>0.15910300077070333</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>0.13762287724714475</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20">
+        <v>0.10814855721490635</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C21">
+        <v>5.197026576834151E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21">
+        <v>0.10709107236508457</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21">
+        <v>0.30643668094329723</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C22">
+        <v>3.5502075926708607E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22">
+        <v>2.6613888899099897E-2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22">
+        <v>5.2768244206291559E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
         <v>105</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0.11819115625337555</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0.18444393583567309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="18">
-        <v>0.11426940639269406</v>
-      </c>
-      <c r="C12" s="18">
-        <v>5.2547713165767528E-2</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23">
+        <v>0.11495523261944324</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>0.11331233725982839</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="I25">
+        <v>2.0959220056360785E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="18">
-        <v>9.764364422569162E-2</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="18">
-        <v>0.33632064062675737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="17">
-        <v>2.0776255707762557E-2</v>
-      </c>
-      <c r="C13" s="17">
-        <v>3.5896543437005365E-2</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="H26" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="I26">
+        <v>0.11632010738895902</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G27" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="17">
-        <v>2.2218061012861254E-2</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0.16828062521923326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B14" s="18">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="H27" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="14" t="s">
+      <c r="I27">
+        <v>0.11447441211196349</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G28" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0.12251447003662695</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="M14" s="18">
-        <v>0.19174320375688136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="17">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C15" s="17">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="H28" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="13" t="s">
+      <c r="I28">
+        <v>2.1204273083676676E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G29" t="s">
         <v>105</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="17">
-        <v>9.9430561690573876E-2</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="17">
-        <v>0.37712195612715815</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="18">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="H29" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="14" t="s">
+      <c r="I29">
+        <v>0.11630400514669803</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="18">
-        <v>2.2965271391870858E-2</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="18">
-        <v>0.1680616153557668</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B17" s="17">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0.16263862301005233</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="H30" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="I30">
+        <v>0.11452983114371207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0.12264326156561349</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0.14769495408386679</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="18">
-        <v>0.11552511415525114</v>
-      </c>
-      <c r="C18" s="18">
-        <v>5.3125160563193538E-2</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="H31" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="I31">
+        <v>2.1171216837340218E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="18">
-        <v>0.10045386194730507</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="18">
-        <v>0.31451538907064003</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B19" s="17">
-        <v>2.1004566210045664E-2</v>
-      </c>
-      <c r="C19" s="17">
-        <v>3.6291010947302131E-2</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="H32" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="13" t="s">
+      <c r="I32">
+        <v>0.11416318349107028</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G33" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="17">
-        <v>2.2611873364752143E-2</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M19" s="17">
-        <v>0.1070148299237299</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B20" s="18">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0.15910300077070333</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="H33" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="14" t="s">
+      <c r="I33">
+        <v>0.11172198474672497</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G34" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0.13762287724714475</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="M20" s="18">
-        <v>0.10814855721490635</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B21" s="17">
-        <v>0.11301369863013698</v>
-      </c>
-      <c r="C21" s="17">
-        <v>5.197026576834151E-2</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="H34" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0.10709107236508457</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="17">
-        <v>0.30643668094329723</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B22" s="18">
-        <v>2.0547945205479451E-2</v>
-      </c>
-      <c r="C22" s="18">
-        <v>3.5502075926708607E-2</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="18">
-        <v>2.6613888899099897E-2</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" s="18">
-        <v>5.2768244206291559E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G23" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0.11495523261944324</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G24" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0.11331233725982839</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G25" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="17">
-        <v>2.0959220056360785E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G26" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0.11632010738895902</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G27" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0.11447441211196349</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G28" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="18">
-        <v>2.1204273083676676E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G29" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0.11630400514669803</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G30" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I30" s="18">
-        <v>0.11452983114371207</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G31" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="17">
-        <v>2.1171216837340218E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G32" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="18">
-        <v>0.11416318349107028</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G33" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0.11172198474672497</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.45">
-      <c r="G34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" s="18">
+      <c r="I34">
         <v>2.0884196114222889E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B234D77-0C09-4C6B-9960-2B4A90A7EC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B233A794-70E6-46A8-A4F5-452D2006EAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,WaD,RaP,RaD,FaD,FaP,SaP,WaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,WaP,SaN,WaN,RaP,FaN,RaN</t>
+    <t>FaD,RaP,RaD,FaP,SaP,SaD,WaP,WaD</t>
+  </si>
+  <si>
+    <t>RaP,SaN,WaN,WaP,FaN,FaP,SaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -923,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,WaP,SaN,WaN,RaP,FaN,RaN</v>
+        <v>RaP,SaN,WaN,WaP,FaN,FaP,SaP,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,WaD,RaP,RaD,FaD,FaP,SaP,WaP</v>
+        <v>FaD,RaP,RaD,FaP,SaP,SaD,WaP,WaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B862CE-6E5B-49EE-A9EF-9266F7222D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35496775-3927-4D20-8C1B-FC3BF694FE28}">
   <dimension ref="B9:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E733FE-FE41-4242-B967-39A765A81D1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA02AA9-F72F-48CA-9AFD-782339FA22FA}">
   <dimension ref="B9:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1753,10 +1753,10 @@
         <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R11">
-        <v>0.30301943544655252</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="S11" t="s">
         <v>110</v>
@@ -1800,10 +1800,10 @@
         <v>85</v>
       </c>
       <c r="Q12" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="R12">
-        <v>0.22555529847292916</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="S12" t="s">
         <v>110</v>
@@ -1847,10 +1847,10 @@
         <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R13">
-        <v>0.40439611291068944</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="S13" t="s">
         <v>110</v>
@@ -1894,10 +1894,10 @@
         <v>85</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="R14">
-        <v>0.26702915316982878</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="S14" t="s">
         <v>110</v>
@@ -2213,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B5ACAA-7474-4F32-9487-3D3060A95FCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E114E1B-C168-4BA1-91C5-2E4E56C24D9E}">
   <dimension ref="B9:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92763D15-0DBE-4F29-BE87-23702C7D0362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D13108F8-8358-439B-AF19-892669DB17AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="111">
   <si>
     <t>UC_N</t>
   </si>
@@ -76,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -293,6 +277,102 @@
   </si>
   <si>
     <t>W,R,S,F</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>FaD</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>FaN</t>
+  </si>
+  <si>
+    <t>FaP</t>
+  </si>
+  <si>
+    <t>RaD</t>
+  </si>
+  <si>
+    <t>RaN</t>
+  </si>
+  <si>
+    <t>RaP</t>
+  </si>
+  <si>
+    <t>SaD</t>
+  </si>
+  <si>
+    <t>SaN</t>
+  </si>
+  <si>
+    <t>SaP</t>
+  </si>
+  <si>
+    <t>WaD</t>
+  </si>
+  <si>
+    <t>WaN</t>
+  </si>
+  <si>
+    <t>WaP</t>
+  </si>
+  <si>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>FaP,SaP,FaD,SaD,WaP,WaD,RaD,RaP</t>
+  </si>
+  <si>
+    <t>RaP,SaN,WaN,FaP,SaP,RaN,WaP,FaN</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
   </si>
 </sst>
 </file>
@@ -785,7 +865,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -806,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -821,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -829,21 +909,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>RaP,SaN,WaN,FaP,SaP,RaN,WaP,FaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -861,21 +941,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>FaP,SaP,FaD,SaD,WaP,WaD,RaD,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -887,26 +967,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -934,551 +1014,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1488,77 +1568,1215 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3828CFA2-9F7D-4A9F-AAD2-7D8CBAD2F9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B02643D-0586-4FD0-BF87-E60AE2843D68}">
   <dimension ref="B9:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3915A170-0081-4FA0-8CC7-9328B47C6A12}">
+  <dimension ref="B9:S22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
+        <v>108</v>
+      </c>
+      <c r="S10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>0.19429881101052746</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>0.10520441806812357</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11">
+        <v>0.30301943544655252</v>
+      </c>
+      <c r="S11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12">
+        <v>6.9026431976756313E-5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>0.10140725246095379</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12">
+        <v>0.40439611291068944</v>
+      </c>
+      <c r="S12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13">
+        <v>1.2744997819071709E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>2.0061122687877575E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13">
+        <v>0.22555529847292916</v>
+      </c>
+      <c r="S13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>0.25838474206722706</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14">
+        <v>0.14904848550067187</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14">
+        <v>0.26702915316982878</v>
+      </c>
+      <c r="S14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>3.3105948694450689E-3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>0.1425689183623626</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>3.0691267184700395E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>2.8818897827592432E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>0.29948444185308731</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17">
+        <v>7.5144634691264436E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18">
+        <v>9.4162079174879981E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>6.846541783195341E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19">
+        <v>3.8021106530569837E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>1.5303222790190243E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20">
+        <v>0.14688613298083877</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>0.1353111009554451</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21">
+        <v>0.13382477085889041</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>6.6926713348765317E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22">
+        <v>2.4841757964468962E-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0C2AD5-4D33-4094-89CB-617BC9282F24}">
+  <dimension ref="B9:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C11">
+        <v>0.16087081189037786</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>30</v>
+      <c r="I11">
+        <v>0.11819115625337555</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11">
+        <v>0.18444393583567309</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C12">
+        <v>5.2547713165767528E-2</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>34</v>
+        <v>86</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>9.764364422569162E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12">
+        <v>0.33632064062675737</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.5896543437005365E-2</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>2.2218061012861254E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13">
+        <v>0.16828062521923326</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C14">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14">
+        <v>0.12251447003662695</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14">
+        <v>0.19174320375688136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C15">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>9.9430561690573876E-2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15">
+        <v>0.37712195612715815</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C16">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>2.2965271391870858E-2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16">
+        <v>0.1680616153557668</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C17">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17">
+        <v>0.12264326156561349</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17">
+        <v>0.14769495408386679</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C18">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>0.10045386194730507</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18">
+        <v>0.31451538907064003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19">
+        <v>2.2611873364752143E-2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19">
+        <v>0.1070148299237299</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C20">
+        <v>0.15910300077070333</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20">
+        <v>0.13762287724714475</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20">
+        <v>0.10814855721490635</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="C21">
+        <v>5.197026576834151E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21">
+        <v>0.10709107236508457</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M21">
+        <v>0.30643668094329723</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="C22">
+        <v>3.5502075926708607E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22">
+        <v>2.6613888899099897E-2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22">
+        <v>5.2768244206291559E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23">
+        <v>0.11495523261944324</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>0.11331233725982839</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25">
+        <v>2.0959220056360785E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26">
+        <v>0.11632010738895902</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27">
+        <v>0.11447441211196349</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28">
+        <v>2.1204273083676676E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29">
+        <v>0.11630400514669803</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30">
+        <v>0.11452983114371207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G31" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31">
+        <v>2.1171216837340218E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32">
+        <v>0.11416318349107028</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33">
+        <v>0.11172198474672497</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.45">
+      <c r="G34" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34">
+        <v>2.0884196114222889E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D13108F8-8358-439B-AF19-892669DB17AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C35BA6FF-2949-444B-AD9A-812DF8FBFBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,FaD,SaD,WaP,WaD,RaD,RaP</t>
-  </si>
-  <si>
-    <t>RaP,SaN,WaN,FaP,SaP,RaN,WaP,FaN</t>
+    <t>WaP,WaD,FaP,SaP,RaP,FaD,RaD,SaD</t>
+  </si>
+  <si>
+    <t>RaN,WaP,FaN,SaN,WaN,RaP,FaP,SaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -923,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,SaN,WaN,FaP,SaP,RaN,WaP,FaN</v>
+        <v>RaN,WaP,FaN,SaN,WaN,RaP,FaP,SaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,FaD,SaD,WaP,WaD,RaD,RaP</v>
+        <v>WaP,WaD,FaP,SaP,RaP,FaD,RaD,SaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B02643D-0586-4FD0-BF87-E60AE2843D68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB07D9-A585-40CB-A70F-E143636F2F68}">
   <dimension ref="B9:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3915A170-0081-4FA0-8CC7-9328B47C6A12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8EFC3C-9B3E-49CF-9CDA-284532DCA7CD}">
   <dimension ref="B9:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1753,10 +1753,10 @@
         <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R11">
-        <v>0.30301943544655252</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="S11" t="s">
         <v>110</v>
@@ -1847,10 +1847,10 @@
         <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R13">
-        <v>0.22555529847292916</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="S13" t="s">
         <v>110</v>
@@ -2213,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0C2AD5-4D33-4094-89CB-617BC9282F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BE35A8-010A-4115-95A3-8598C518E930}">
   <dimension ref="B9:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C35BA6FF-2949-444B-AD9A-812DF8FBFBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A68E165-AD5B-4C74-B0BA-01ED5F322085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaP,WaD,FaP,SaP,RaP,FaD,RaD,SaD</t>
-  </si>
-  <si>
-    <t>RaN,WaP,FaN,SaN,WaN,RaP,FaP,SaP</t>
+    <t>FaP,SaP,WaD,RaD,SaD,RaP,WaP,FaD</t>
+  </si>
+  <si>
+    <t>SaN,WaN,FaN,FaP,SaP,RaN,WaP,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -923,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaN,WaP,FaN,SaN,WaN,RaP,FaP,SaP</v>
+        <v>SaN,WaN,FaN,FaP,SaP,RaN,WaP,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaP,WaD,FaP,SaP,RaP,FaD,RaD,SaD</v>
+        <v>FaP,SaP,WaD,RaD,SaD,RaP,WaP,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BB07D9-A585-40CB-A70F-E143636F2F68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6BC854-E231-4CA6-B619-D627352C675A}">
   <dimension ref="B9:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8EFC3C-9B3E-49CF-9CDA-284532DCA7CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E8FA6A-9D2C-415B-9FE1-1A5DC0CF5D3D}">
   <dimension ref="B9:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1747,7 +1747,7 @@
         <v>84</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.7172680668432682E-2</v>
       </c>
       <c r="O11" t="s">
         <v>85</v>
@@ -1794,7 +1794,7 @@
         <v>86</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.10539924156265808</v>
       </c>
       <c r="O12" t="s">
         <v>85</v>
@@ -1841,16 +1841,16 @@
         <v>87</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.8540853079282008E-2</v>
       </c>
       <c r="O13" t="s">
         <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="R13">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="S13" t="s">
         <v>110</v>
@@ -1888,16 +1888,16 @@
         <v>88</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.13990776695821097</v>
       </c>
       <c r="O14" t="s">
         <v>85</v>
       </c>
       <c r="Q14" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="R14">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="S14" t="s">
         <v>110</v>
@@ -1935,7 +1935,7 @@
         <v>89</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.14899437241819788</v>
       </c>
       <c r="O15" t="s">
         <v>85</v>
@@ -1973,7 +1973,7 @@
         <v>90</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2.7122130054051344E-2</v>
       </c>
       <c r="O16" t="s">
         <v>85</v>
@@ -2011,7 +2011,7 @@
         <v>91</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.8511894999283909E-2</v>
       </c>
       <c r="O17" t="s">
         <v>85</v>
@@ -2049,7 +2049,7 @@
         <v>92</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.3165268177176404E-2</v>
       </c>
       <c r="O18" t="s">
         <v>85</v>
@@ -2087,7 +2087,7 @@
         <v>93</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.532870077005929E-2</v>
       </c>
       <c r="O19" t="s">
         <v>85</v>
@@ -2125,7 +2125,7 @@
         <v>94</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.14132794813818267</v>
       </c>
       <c r="O20" t="s">
         <v>85</v>
@@ -2163,7 +2163,7 @@
         <v>95</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.13886151961176466</v>
       </c>
       <c r="O21" t="s">
         <v>85</v>
@@ -2201,7 +2201,7 @@
         <v>96</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>2.5667623562496359E-2</v>
       </c>
       <c r="O22" t="s">
         <v>85</v>
@@ -2213,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BE35A8-010A-4115-95A3-8598C518E930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE874787-5865-4939-9BA1-C605A3698A32}">
   <dimension ref="B9:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A68E165-AD5B-4C74-B0BA-01ED5F322085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4ACE4AB-775F-4FEE-A0AC-1FC82103C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,WaD,RaD,SaD,RaP,WaP,FaD</t>
-  </si>
-  <si>
-    <t>SaN,WaN,FaN,FaP,SaP,RaN,WaP,RaP</t>
+    <t>WaD,FaP,SaP,SaD,RaD,WaP,RaP,FaD</t>
+  </si>
+  <si>
+    <t>WaP,FaP,SaP,RaN,FaN,SaN,WaN,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -923,7 +923,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,FaN,FaP,SaP,RaN,WaP,RaP</v>
+        <v>WaP,FaP,SaP,RaN,FaN,SaN,WaN,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -955,7 +955,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,WaD,RaD,SaD,RaP,WaP,FaD</v>
+        <v>WaD,FaP,SaP,SaD,RaD,WaP,RaP,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1568,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6BC854-E231-4CA6-B619-D627352C675A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD10E739-1623-4E77-998A-9A122F0C2F0F}">
   <dimension ref="B9:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E8FA6A-9D2C-415B-9FE1-1A5DC0CF5D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B39798-27F1-43A3-AB5A-610D5EB37E22}">
   <dimension ref="B9:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1753,10 +1753,10 @@
         <v>85</v>
       </c>
       <c r="Q11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R11">
-        <v>0.22555529847292916</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="S11" t="s">
         <v>110</v>
@@ -1800,10 +1800,10 @@
         <v>85</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="R12">
-        <v>0.40439611291068944</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="S12" t="s">
         <v>110</v>
@@ -1847,10 +1847,10 @@
         <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="R13">
-        <v>0.26702915316982878</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="S13" t="s">
         <v>110</v>
@@ -1894,10 +1894,10 @@
         <v>85</v>
       </c>
       <c r="Q14" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="R14">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="S14" t="s">
         <v>110</v>
@@ -2213,7 +2213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE874787-5865-4939-9BA1-C605A3698A32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC49DC4-7074-4E16-8007-74F1BE1D0908}">
   <dimension ref="B9:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C4DDC-1AB8-4928-9DC5-D61EAAF09EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8A0EAB0-1BBF-47AF-978F-AC08978E47D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
+    <sheet name="ts_12" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="103">
   <si>
     <t>UC_N</t>
   </si>
@@ -75,24 +76,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -265,6 +248,105 @@
   </si>
   <si>
     <t>timeslice</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>FaD</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>FaN</t>
+  </si>
+  <si>
+    <t>FaP</t>
+  </si>
+  <si>
+    <t>RaD</t>
+  </si>
+  <si>
+    <t>RaN</t>
+  </si>
+  <si>
+    <t>RaP</t>
+  </si>
+  <si>
+    <t>SaD</t>
+  </si>
+  <si>
+    <t>SaN</t>
+  </si>
+  <si>
+    <t>SaP</t>
+  </si>
+  <si>
+    <t>WaD</t>
+  </si>
+  <si>
+    <t>WaN</t>
+  </si>
+  <si>
+    <t>WaP</t>
+  </si>
+  <si>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>SaD,WaD,RaP,RaD,FaP,SaP,WaP,FaD</t>
+  </si>
+  <si>
+    <t>FaP,SaP,FaN,SaN,WaN,RaN,WaP,RaP</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -741,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -757,7 +839,7 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
@@ -778,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -793,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -801,21 +883,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>FaP,SaP,FaN,SaN,WaN,RaN,WaP,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -833,21 +915,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>SaD,WaD,RaP,RaD,FaP,SaP,WaP,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -859,26 +941,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -906,553 +988,1650 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C18272-59E7-4480-9CDD-36B1740AAE14}">
+  <dimension ref="B9:AF34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>0.19429881101052746</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>0.10520441806812357</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11">
+        <v>9.7172680668432682E-2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="R11">
+        <v>0.16087081189037786</v>
+      </c>
+      <c r="S11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>91</v>
+      </c>
+      <c r="V11" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11">
+        <v>0.11819115625337555</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11">
+        <v>0.18444393583567309</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE11">
+        <v>0.4043961129106895</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>6.9026431976756313E-5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12">
+        <v>0.10140725246095379</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12">
+        <v>0.10539924156265808</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="R12">
+        <v>5.2547713165767528E-2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>77</v>
+      </c>
+      <c r="T12" t="s">
+        <v>91</v>
+      </c>
+      <c r="V12" t="s">
+        <v>95</v>
+      </c>
+      <c r="W12" t="s">
+        <v>77</v>
+      </c>
+      <c r="X12">
+        <v>9.764364422569162E-2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB12">
+        <v>0.33632064062675737</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE12">
+        <v>0.30301943544655252</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13">
+        <v>1.2744997819071709E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13">
+        <v>2.0061122687877575E-2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13">
+        <v>1.8540853079282008E-2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="R13">
+        <v>3.5896543437005365E-2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>78</v>
+      </c>
+      <c r="T13" t="s">
+        <v>91</v>
+      </c>
+      <c r="V13" t="s">
+        <v>95</v>
+      </c>
+      <c r="W13" t="s">
+        <v>78</v>
+      </c>
+      <c r="X13">
+        <v>2.2218061012861254E-2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB13">
+        <v>0.16828062521923326</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE13">
+        <v>0.26702915316982878</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>0.25838474206722706</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14">
+        <v>0.14904848550067187</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14">
+        <v>0.13990776695821097</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="R14">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="S14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" t="s">
+        <v>95</v>
+      </c>
+      <c r="W14" t="s">
+        <v>79</v>
+      </c>
+      <c r="X14">
+        <v>0.12251447003662695</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB14">
+        <v>0.19174320375688136</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE14">
+        <v>0.22555529847292916</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>3.3105948694450689E-3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15">
+        <v>0.1425689183623626</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15">
+        <v>0.14899437241819788</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q15">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="R15">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" t="s">
+        <v>91</v>
+      </c>
+      <c r="V15" t="s">
+        <v>95</v>
+      </c>
+      <c r="W15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15">
+        <v>9.9430561690573876E-2</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB15">
+        <v>0.37712195612715815</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>3.0691267184700395E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16">
+        <v>2.8818897827592432E-2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16">
+        <v>2.7122130054051344E-2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="R16">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" t="s">
+        <v>91</v>
+      </c>
+      <c r="V16" t="s">
+        <v>95</v>
+      </c>
+      <c r="W16" t="s">
+        <v>81</v>
+      </c>
+      <c r="X16">
+        <v>2.2965271391870858E-2</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB16">
+        <v>0.1680616153557668</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>0.29948444185308731</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17">
+        <v>7.5144634691264436E-2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N17">
+        <v>6.8511894999283909E-2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="R17">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="S17" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" t="s">
+        <v>95</v>
+      </c>
+      <c r="W17" t="s">
+        <v>82</v>
+      </c>
+      <c r="X17">
+        <v>0.12264326156561349</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB17">
+        <v>0.14769495408386679</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>9.4162079174879981E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18">
+        <v>6.846541783195341E-2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18">
+        <v>7.3165268177176404E-2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="R18">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>83</v>
+      </c>
+      <c r="T18" t="s">
+        <v>91</v>
+      </c>
+      <c r="V18" t="s">
+        <v>95</v>
+      </c>
+      <c r="W18" t="s">
+        <v>83</v>
+      </c>
+      <c r="X18">
+        <v>0.10045386194730507</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB18">
+        <v>0.31451538907064003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>3.8021106530569837E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19">
+        <v>1.5303222790190243E-2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19">
+        <v>1.532870077005929E-2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="R19">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>84</v>
+      </c>
+      <c r="T19" t="s">
+        <v>91</v>
+      </c>
+      <c r="V19" t="s">
+        <v>95</v>
+      </c>
+      <c r="W19" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19">
+        <v>2.2611873364752143E-2</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB19">
+        <v>0.1070148299237299</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>0.14688613298083877</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>0.1353111009554451</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L20" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20">
+        <v>0.14132794813818267</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="R20">
+        <v>0.15910300077070333</v>
+      </c>
+      <c r="S20" t="s">
+        <v>85</v>
+      </c>
+      <c r="T20" t="s">
+        <v>91</v>
+      </c>
+      <c r="V20" t="s">
+        <v>95</v>
+      </c>
+      <c r="W20" t="s">
+        <v>85</v>
+      </c>
+      <c r="X20">
+        <v>0.13762287724714475</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB20">
+        <v>0.10814855721490635</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>0.13382477085889041</v>
+      </c>
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21">
+        <v>0.13886151961176466</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21">
+        <v>0.11301369863013698</v>
+      </c>
+      <c r="R21">
+        <v>5.197026576834151E-2</v>
+      </c>
+      <c r="S21" t="s">
+        <v>86</v>
+      </c>
+      <c r="T21" t="s">
+        <v>91</v>
+      </c>
+      <c r="V21" t="s">
+        <v>95</v>
+      </c>
+      <c r="W21" t="s">
+        <v>86</v>
+      </c>
+      <c r="X21">
+        <v>0.10709107236508457</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB21">
+        <v>0.30643668094329723</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>6.6926713348765317E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22">
+        <v>2.4841757964468962E-2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22">
+        <v>2.5667623562496359E-2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22">
+        <v>2.0547945205479451E-2</v>
+      </c>
+      <c r="R22">
+        <v>3.5502075926708607E-2</v>
+      </c>
+      <c r="S22" t="s">
+        <v>87</v>
+      </c>
+      <c r="T22" t="s">
+        <v>91</v>
+      </c>
+      <c r="V22" t="s">
+        <v>95</v>
+      </c>
+      <c r="W22" t="s">
+        <v>87</v>
+      </c>
+      <c r="X22">
+        <v>2.6613888899099897E-2</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB22">
+        <v>5.2768244206291559E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V23" t="s">
+        <v>96</v>
+      </c>
+      <c r="W23" t="s">
+        <v>75</v>
+      </c>
+      <c r="X23">
+        <v>0.11495523261944324</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V24" t="s">
+        <v>96</v>
+      </c>
+      <c r="W24" t="s">
+        <v>77</v>
+      </c>
+      <c r="X24">
+        <v>0.11331233725982839</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V25" t="s">
+        <v>96</v>
+      </c>
+      <c r="W25" t="s">
+        <v>78</v>
+      </c>
+      <c r="X25">
+        <v>2.0959220056360785E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V26" t="s">
+        <v>96</v>
+      </c>
+      <c r="W26" t="s">
+        <v>79</v>
+      </c>
+      <c r="X26">
+        <v>0.11632010738895902</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V27" t="s">
+        <v>96</v>
+      </c>
+      <c r="W27" t="s">
+        <v>80</v>
+      </c>
+      <c r="X27">
+        <v>0.11447441211196349</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V28" t="s">
+        <v>96</v>
+      </c>
+      <c r="W28" t="s">
+        <v>81</v>
+      </c>
+      <c r="X28">
+        <v>2.1204273083676676E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V29" t="s">
+        <v>96</v>
+      </c>
+      <c r="W29" t="s">
+        <v>82</v>
+      </c>
+      <c r="X29">
+        <v>0.11630400514669803</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V30" t="s">
+        <v>96</v>
+      </c>
+      <c r="W30" t="s">
+        <v>83</v>
+      </c>
+      <c r="X30">
+        <v>0.11452983114371207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V31" t="s">
+        <v>96</v>
+      </c>
+      <c r="W31" t="s">
+        <v>84</v>
+      </c>
+      <c r="X31">
+        <v>2.1171216837340218E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.45">
+      <c r="V32" t="s">
+        <v>96</v>
+      </c>
+      <c r="W32" t="s">
+        <v>85</v>
+      </c>
+      <c r="X32">
+        <v>0.11416318349107028</v>
+      </c>
+    </row>
+    <row r="33" spans="22:24" x14ac:dyDescent="0.45">
+      <c r="V33" t="s">
+        <v>96</v>
+      </c>
+      <c r="W33" t="s">
+        <v>86</v>
+      </c>
+      <c r="X33">
+        <v>0.11172198474672497</v>
+      </c>
+    </row>
+    <row r="34" spans="22:24" x14ac:dyDescent="0.45">
+      <c r="V34" t="s">
+        <v>96</v>
+      </c>
+      <c r="W34" t="s">
+        <v>87</v>
+      </c>
+      <c r="X34">
+        <v>2.0884196114222889E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{693E8A43-4F70-4F8A-B194-FDE894C6D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F75F0B1-B9B7-4780-8628-21B0DFF3F398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaD,WaD,WaP,SaD,RaP,FaP,SaP,FaD</t>
-  </si>
-  <si>
-    <t>FaN,SaN,WaN,RaN,FaP,SaP,RaP,WaP</t>
+    <t>SaD,RaP,FaD,RaD,FaP,SaP,WaD,WaP</t>
+  </si>
+  <si>
+    <t>FaP,SaP,RaP,WaP,FaN,SaN,WaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -710,7 +710,7 @@
   <dimension ref="A10:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -761,7 +761,7 @@
     <row r="19" spans="3:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="3" t="str">
-        <f>IF(C11=C12,"Not Required!","~UC_T: LO")</f>
+        <f>IF(H23=H24,"Not Required!","~UC_T: LO")</f>
         <v>~UC_T: LO</v>
       </c>
     </row>
@@ -812,8 +812,8 @@
         <v>9</v>
       </c>
       <c r="H23" t="str">
-        <f>C12</f>
-        <v>N</v>
+        <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
+        <v>FaP,SaP,RaP,WaP,FaN,SaN,WaN,RaN</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -844,8 +844,8 @@
         <v>9</v>
       </c>
       <c r="H24" t="str">
-        <f>C11</f>
-        <v>D</v>
+        <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
+        <v>SaD,RaP,FaD,RaD,FaP,SaP,WaD,WaP</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A48D71-AEFE-4932-B1B1-4DCE1A94829F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCDD3B-9817-4F7D-AE90-3781FA8FCECC}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1087,7 +1087,7 @@
         <v>28</v>
       </c>
       <c r="AL11">
-        <v>0.40439611291068944</v>
+        <v>0.4043961129106895</v>
       </c>
       <c r="AM11" t="s">
         <v>62</v>
@@ -1170,10 +1170,10 @@
         <v>0.33632064062675737</v>
       </c>
       <c r="AK12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL12">
-        <v>0.30301943544655252</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="AM12" t="s">
         <v>62</v>
@@ -1256,10 +1256,10 @@
         <v>0.16828062521923326</v>
       </c>
       <c r="AK13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL13">
-        <v>0.22555529847292916</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="AM13" t="s">
         <v>62</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F75F0B1-B9B7-4780-8628-21B0DFF3F398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B86FA54-6FBC-4E60-A9C7-E7ABF9E43155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,RaP,FaD,RaD,FaP,SaP,WaD,WaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,RaP,WaP,FaN,SaN,WaN,RaN</t>
+    <t>FaD,SaD,FaP,SaP,RaP,RaD,WaD,WaP</t>
+  </si>
+  <si>
+    <t>FaN,RaP,FaP,SaP,WaP,SaN,WaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -813,7 +813,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>FaP,SaP,RaP,WaP,FaN,SaN,WaN,RaN</v>
+        <v>FaN,RaP,FaP,SaP,WaP,SaN,WaN,RaN</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -845,7 +845,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>SaD,RaP,FaD,RaD,FaP,SaP,WaD,WaP</v>
+        <v>FaD,SaD,FaP,SaP,RaP,RaD,WaD,WaP</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBCDD3B-9817-4F7D-AE90-3781FA8FCECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D96E0-C98D-4425-8BBD-19D8F0C8505A}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1256,10 +1256,10 @@
         <v>0.16828062521923326</v>
       </c>
       <c r="AK13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL13">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="AM13" t="s">
         <v>62</v>
@@ -1336,10 +1336,10 @@
         <v>0.19174320375688136</v>
       </c>
       <c r="AK14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL14">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="AM14" t="s">
         <v>62</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B86FA54-6FBC-4E60-A9C7-E7ABF9E43155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{235FA5BC-7FC9-4328-AB10-8264113CF7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="64">
   <si>
     <t>UC_N</t>
   </si>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,SaD,FaP,SaP,RaP,RaD,WaD,WaP</t>
-  </si>
-  <si>
-    <t>FaN,RaP,FaP,SaP,WaP,SaN,WaN,RaN</t>
+    <t>SaD,FaP,SaP,FaD,WaD,RaD,RaP,WaP</t>
+  </si>
+  <si>
+    <t>FaP,SaP,FaN,SaN,WaN,RaP,WaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>Elec</t>
   </si>
   <si>
     <t>ncap_afs</t>
@@ -813,7 +816,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>FaN,RaP,FaP,SaP,WaP,SaN,WaN,RaN</v>
+        <v>FaP,SaP,FaN,SaN,WaN,RaP,WaP,RaN</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -845,7 +848,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>FaD,SaD,FaP,SaP,RaP,RaD,WaD,WaP</v>
+        <v>SaD,FaP,SaP,FaD,WaD,RaD,RaP,WaP</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -861,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{955D96E0-C98D-4425-8BBD-19D8F0C8505A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3208ED-9FCD-4386-953E-BC99895D9F2F}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -991,10 +994,10 @@
         <v>33</v>
       </c>
       <c r="AL10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -1075,7 +1078,7 @@
         <v>0.11819115625337555</v>
       </c>
       <c r="AG11" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH11" t="s">
         <v>37</v>
@@ -1084,13 +1087,13 @@
         <v>0.18444393583567309</v>
       </c>
       <c r="AK11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL11">
-        <v>0.4043961129106895</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="AM11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
@@ -1161,7 +1164,7 @@
         <v>9.764364422569162E-2</v>
       </c>
       <c r="AG12" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH12" t="s">
         <v>39</v>
@@ -1173,10 +1176,10 @@
         <v>30</v>
       </c>
       <c r="AL12">
-        <v>0.22555529847292916</v>
+        <v>0.22555529847292924</v>
       </c>
       <c r="AM12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.45">
@@ -1247,7 +1250,7 @@
         <v>2.2218061012861254E-2</v>
       </c>
       <c r="AG13" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH13" t="s">
         <v>40</v>
@@ -1262,7 +1265,7 @@
         <v>0.26702915316982878</v>
       </c>
       <c r="AM13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.45">
@@ -1327,7 +1330,7 @@
         <v>0.12251447003662695</v>
       </c>
       <c r="AG14" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH14" t="s">
         <v>41</v>
@@ -1336,13 +1339,13 @@
         <v>0.19174320375688136</v>
       </c>
       <c r="AK14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL14">
-        <v>0.30301943544655252</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="AM14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.45">
@@ -1404,7 +1407,7 @@
         <v>9.9430561690573876E-2</v>
       </c>
       <c r="AG15" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH15" t="s">
         <v>42</v>
@@ -1472,7 +1475,7 @@
         <v>2.2965271391870858E-2</v>
       </c>
       <c r="AG16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH16" t="s">
         <v>43</v>
@@ -1540,7 +1543,7 @@
         <v>0.12264326156561349</v>
       </c>
       <c r="AG17" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH17" t="s">
         <v>44</v>
@@ -1608,7 +1611,7 @@
         <v>0.10045386194730507</v>
       </c>
       <c r="AG18" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH18" t="s">
         <v>45</v>
@@ -1676,7 +1679,7 @@
         <v>2.2611873364752143E-2</v>
       </c>
       <c r="AG19" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH19" t="s">
         <v>46</v>
@@ -1744,7 +1747,7 @@
         <v>0.13762287724714475</v>
       </c>
       <c r="AG20" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH20" t="s">
         <v>47</v>
@@ -1812,7 +1815,7 @@
         <v>0.10709107236508457</v>
       </c>
       <c r="AG21" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH21" t="s">
         <v>48</v>
@@ -1880,7 +1883,7 @@
         <v>2.6613888899099897E-2</v>
       </c>
       <c r="AG22" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH22" t="s">
         <v>49</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{235FA5BC-7FC9-4328-AB10-8264113CF7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5393014E-6ECD-488E-B55C-39E29F465671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,FaP,SaP,FaD,WaD,RaD,RaP,WaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,FaN,SaN,WaN,RaP,WaP,RaN</t>
+    <t>FaP,SaP,WaP,SaD,RaD,WaD,RaP,FaD</t>
+  </si>
+  <si>
+    <t>FaN,RaN,WaP,FaP,SaP,SaN,WaN,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -816,7 +816,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>FaP,SaP,FaN,SaN,WaN,RaP,WaP,RaN</v>
+        <v>FaN,RaN,WaP,FaP,SaP,SaN,WaN,RaP</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -848,7 +848,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>SaD,FaP,SaP,FaD,WaD,RaD,RaP,WaP</v>
+        <v>FaP,SaP,WaP,SaD,RaD,WaD,RaP,FaD</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3208ED-9FCD-4386-953E-BC99895D9F2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCA616A-4E86-47F9-9C56-D4454864F378}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1173,10 +1173,10 @@
         <v>0.33632064062675737</v>
       </c>
       <c r="AK12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL12">
-        <v>0.22555529847292924</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="AM12" t="s">
         <v>63</v>
@@ -1259,10 +1259,10 @@
         <v>0.16828062521923326</v>
       </c>
       <c r="AK13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AL13">
-        <v>0.26702915316982878</v>
+        <v>0.22555529847292924</v>
       </c>
       <c r="AM13" t="s">
         <v>63</v>
@@ -1339,10 +1339,10 @@
         <v>0.19174320375688136</v>
       </c>
       <c r="AK14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL14">
-        <v>0.40439611291068944</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="AM14" t="s">
         <v>63</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5393014E-6ECD-488E-B55C-39E29F465671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AE0116-3973-46BF-9F7D-D54638700C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="63">
   <si>
     <t>UC_N</t>
   </si>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,WaP,SaD,RaD,WaD,RaP,FaD</t>
-  </si>
-  <si>
-    <t>FaN,RaN,WaP,FaP,SaP,SaN,WaN,RaP</t>
+    <t>WaD,RaP,SaD,FaD,RaD,WaP,FaP,SaP</t>
+  </si>
+  <si>
+    <t>WaP,FaP,SaP,RaP,FaN,SaN,WaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>Elec</t>
   </si>
   <si>
     <t>ncap_afs</t>
@@ -816,7 +813,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>FaN,RaN,WaP,FaP,SaP,SaN,WaN,RaP</v>
+        <v>WaP,FaP,SaP,RaP,FaN,SaN,WaN,RaN</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -848,7 +845,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>FaP,SaP,WaP,SaD,RaD,WaD,RaP,FaD</v>
+        <v>WaD,RaP,SaD,FaD,RaD,WaP,FaP,SaP</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -864,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCA616A-4E86-47F9-9C56-D4454864F378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3F1578-A9CB-40A9-97D8-A9A44BCD012D}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -994,10 +991,10 @@
         <v>33</v>
       </c>
       <c r="AL10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM10" t="s">
         <v>61</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -1078,7 +1075,7 @@
         <v>0.11819115625337555</v>
       </c>
       <c r="AG11" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="s">
         <v>37</v>
@@ -1087,13 +1084,13 @@
         <v>0.18444393583567309</v>
       </c>
       <c r="AK11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL11">
-        <v>0.30301943544655252</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="AM11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">
@@ -1164,7 +1161,7 @@
         <v>9.764364422569162E-2</v>
       </c>
       <c r="AG12" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="s">
         <v>39</v>
@@ -1173,13 +1170,13 @@
         <v>0.33632064062675737</v>
       </c>
       <c r="AK12" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL12">
-        <v>0.40439611291068944</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="AM12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.45">
@@ -1250,7 +1247,7 @@
         <v>2.2218061012861254E-2</v>
       </c>
       <c r="AG13" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="s">
         <v>40</v>
@@ -1262,10 +1259,10 @@
         <v>30</v>
       </c>
       <c r="AL13">
-        <v>0.22555529847292924</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="AM13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.45">
@@ -1330,7 +1327,7 @@
         <v>0.12251447003662695</v>
       </c>
       <c r="AG14" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="s">
         <v>41</v>
@@ -1339,13 +1336,13 @@
         <v>0.19174320375688136</v>
       </c>
       <c r="AK14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AL14">
-        <v>0.26702915316982878</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="AM14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.45">
@@ -1407,7 +1404,7 @@
         <v>9.9430561690573876E-2</v>
       </c>
       <c r="AG15" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="s">
         <v>42</v>
@@ -1475,7 +1472,7 @@
         <v>2.2965271391870858E-2</v>
       </c>
       <c r="AG16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="s">
         <v>43</v>
@@ -1543,7 +1540,7 @@
         <v>0.12264326156561349</v>
       </c>
       <c r="AG17" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="s">
         <v>44</v>
@@ -1611,7 +1608,7 @@
         <v>0.10045386194730507</v>
       </c>
       <c r="AG18" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="s">
         <v>45</v>
@@ -1679,7 +1676,7 @@
         <v>2.2611873364752143E-2</v>
       </c>
       <c r="AG19" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="s">
         <v>46</v>
@@ -1747,7 +1744,7 @@
         <v>0.13762287724714475</v>
       </c>
       <c r="AG20" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="s">
         <v>47</v>
@@ -1815,7 +1812,7 @@
         <v>0.10709107236508457</v>
       </c>
       <c r="AG21" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="s">
         <v>48</v>
@@ -1883,7 +1880,7 @@
         <v>2.6613888899099897E-2</v>
       </c>
       <c r="AG22" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="s">
         <v>49</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96AE0116-3973-46BF-9F7D-D54638700C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{858CBA29-71EF-45F0-8C22-4D271B72FCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,RaP,SaD,FaD,RaD,WaP,FaP,SaP</t>
-  </si>
-  <si>
-    <t>WaP,FaP,SaP,RaP,FaN,SaN,WaN,RaN</t>
+    <t>FaP,SaP,SaD,FaD,RaD,WaP,WaD,RaP</t>
+  </si>
+  <si>
+    <t>FaN,FaP,SaP,RaP,WaP,RaN,SaN,WaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -813,7 +813,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>WaP,FaP,SaP,RaP,FaN,SaN,WaN,RaN</v>
+        <v>FaN,FaP,SaP,RaP,WaP,RaN,SaN,WaN</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -845,7 +845,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>WaD,RaP,SaD,FaD,RaD,WaP,FaP,SaP</v>
+        <v>FaP,SaP,SaD,FaD,RaD,WaP,WaD,RaP</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3F1578-A9CB-40A9-97D8-A9A44BCD012D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A0E9BE-901E-45EB-830D-E85ABA4A97C4}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1084,10 +1084,10 @@
         <v>0.18444393583567309</v>
       </c>
       <c r="AK11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL11">
-        <v>0.40439611291068944</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="AM11" t="s">
         <v>62</v>
@@ -1170,10 +1170,10 @@
         <v>0.33632064062675737</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AL12">
-        <v>0.26702915316982878</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="AM12" t="s">
         <v>62</v>
@@ -1256,10 +1256,10 @@
         <v>0.16828062521923326</v>
       </c>
       <c r="AK13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL13">
-        <v>0.22555529847292916</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="AM13" t="s">
         <v>62</v>
@@ -1336,10 +1336,10 @@
         <v>0.19174320375688136</v>
       </c>
       <c r="AK14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL14">
-        <v>0.30301943544655252</v>
+        <v>0.26702915316982878</v>
       </c>
       <c r="AM14" t="s">
         <v>62</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{858CBA29-71EF-45F0-8C22-4D271B72FCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{285F9B6C-54D9-4B83-943C-E5CBC1FAC38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -207,10 +207,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,SaD,FaD,RaD,WaP,WaD,RaP</t>
-  </si>
-  <si>
-    <t>FaN,FaP,SaP,RaP,WaP,RaN,SaN,WaN</t>
+    <t>FaD,SaD,WaD,RaD,FaP,SaP,RaP,WaP</t>
+  </si>
+  <si>
+    <t>RaP,FaN,FaP,SaP,WaP,SaN,WaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -813,7 +813,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>FaN,FaP,SaP,RaP,WaP,RaN,SaN,WaN</v>
+        <v>RaP,FaN,FaP,SaP,WaP,SaN,WaN,RaN</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -845,7 +845,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>FaP,SaP,SaD,FaD,RaD,WaP,WaD,RaP</v>
+        <v>FaD,SaD,WaD,RaD,FaP,SaP,RaP,WaP</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A0E9BE-901E-45EB-830D-E85ABA4A97C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705DDCAB-4EED-46D8-A169-5686D869EEF8}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1084,10 +1084,10 @@
         <v>0.18444393583567309</v>
       </c>
       <c r="AK11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL11">
-        <v>0.22555529847292916</v>
+        <v>0.30301943544655252</v>
       </c>
       <c r="AM11" t="s">
         <v>62</v>
@@ -1170,10 +1170,10 @@
         <v>0.33632064062675737</v>
       </c>
       <c r="AK12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL12">
-        <v>0.40439611291068944</v>
+        <v>0.22555529847292916</v>
       </c>
       <c r="AM12" t="s">
         <v>62</v>
@@ -1256,10 +1256,10 @@
         <v>0.16828062521923326</v>
       </c>
       <c r="AK13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL13">
-        <v>0.30301943544655252</v>
+        <v>0.40439611291068944</v>
       </c>
       <c r="AM13" t="s">
         <v>62</v>
